--- a/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.syntax_checked.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4300" yWindow="4120" windowWidth="36160" windowHeight="19700" tabRatio="618" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4300" yWindow="4120" windowWidth="36160" windowHeight="19700" tabRatio="618" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId1"/>
@@ -614,27 +614,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -644,6 +623,27 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2328,8 +2328,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" thickTop="1">
-      <c r="B13" s="101" t="n"/>
+      <c r="B13" s="105" t="n"/>
       <c r="C13" s="112" t="n"/>
     </row>
   </sheetData>
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1">
-      <c r="B5" s="102" t="inlineStr">
+      <c r="B5" s="106" t="inlineStr">
         <is>
           <t>Authorization</t>
         </is>
@@ -3067,14 +3067,14 @@
       <c r="V6" s="38" t="n"/>
       <c r="W6" s="38" t="n"/>
       <c r="X6" s="36" t="n"/>
-      <c r="Y6" s="104" t="inlineStr">
+      <c r="Y6" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transfer / Acquisition</t>
         </is>
       </c>
       <c r="Z6" s="113" t="n"/>
       <c r="AA6" s="40" t="n"/>
-      <c r="AB6" s="103" t="inlineStr">
+      <c r="AB6" s="107" t="inlineStr">
         <is>
           <t>Use or cancellation</t>
         </is>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
-      <c r="B3" s="106" t="inlineStr">
+      <c r="B3" s="110" t="inlineStr">
         <is>
           <t>Table 4: Holdings</t>
         </is>
@@ -3576,7 +3576,7 @@
       <c r="J3" s="114" t="n"/>
       <c r="K3" s="114" t="n"/>
       <c r="L3" s="50" t="n"/>
-      <c r="M3" s="107" t="n"/>
+      <c r="M3" s="111" t="n"/>
       <c r="N3" s="114" t="n"/>
       <c r="O3" s="114" t="n"/>
       <c r="P3" s="114" t="n"/>
@@ -3590,7 +3590,7 @@
       <c r="C4" s="67" t="n"/>
       <c r="D4" s="68" t="n"/>
       <c r="E4" s="67" t="n"/>
-      <c r="F4" s="105" t="inlineStr">
+      <c r="F4" s="109" t="inlineStr">
         <is>
           <t>Unique identifiers</t>
         </is>
@@ -3601,7 +3601,7 @@
       <c r="J4" s="115" t="n"/>
       <c r="K4" s="115" t="n"/>
       <c r="L4" s="69" t="n"/>
-      <c r="M4" s="105" t="inlineStr">
+      <c r="M4" s="109" t="inlineStr">
         <is>
           <t>Metric and quantity</t>
         </is>
@@ -3611,7 +3611,7 @@
       <c r="P4" s="115" t="n"/>
       <c r="Q4" s="115" t="n"/>
       <c r="R4" s="69" t="n"/>
-      <c r="S4" s="105" t="inlineStr">
+      <c r="S4" s="109" t="inlineStr">
         <is>
           <t>ITMO details</t>
         </is>
@@ -3624,14 +3624,14 @@
       <c r="C5" s="23" t="n"/>
       <c r="D5" s="38" t="n"/>
       <c r="E5" s="38" t="n"/>
-      <c r="F5" s="103" t="inlineStr">
+      <c r="F5" s="107" t="inlineStr">
         <is>
           <t>ITMO unique identifier</t>
         </is>
       </c>
       <c r="G5" s="113" t="n"/>
       <c r="H5" s="18" t="n"/>
-      <c r="I5" s="103" t="inlineStr">
+      <c r="I5" s="107" t="inlineStr">
         <is>
           <t>Underlying units</t>
         </is>
@@ -3658,7 +3658,7 @@
       <c r="G6" s="37" t="n"/>
       <c r="H6" s="18" t="n"/>
       <c r="I6" s="23" t="n"/>
-      <c r="J6" s="103" t="inlineStr">
+      <c r="J6" s="107" t="inlineStr">
         <is>
           <t>Underlying unit unique identifier</t>
         </is>
@@ -4276,7 +4276,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -4303,15 +4303,15 @@
     <row r="6"/>
     <row r="7"/>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="C8" s="108" t="inlineStr">
+      <c r="C8" s="101" t="inlineStr">
         <is>
           <t>Table 5: Authorized entities</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="C9" s="109" t="n"/>
-      <c r="D9" s="103" t="inlineStr">
+      <c r="C9" s="102" t="n"/>
+      <c r="D9" s="107" t="inlineStr">
         <is>
           <t>Authorized entity</t>
         </is>
@@ -4368,7 +4368,7 @@
       <c r="K10" s="53" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="110" t="n">
+      <c r="C11" s="103" t="n">
         <v>45334</v>
       </c>
       <c r="D11" s="53" t="n"/>
@@ -4381,7 +4381,7 @@
       <c r="K11" s="53" t="n"/>
     </row>
     <row r="12" ht="16" customHeight="1" thickBot="1">
-      <c r="C12" s="111" t="n"/>
+      <c r="C12" s="104" t="n"/>
       <c r="D12" s="54" t="n"/>
       <c r="E12" s="54" t="n"/>
       <c r="F12" s="54" t="n"/>
@@ -4769,8 +4769,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -5080,17 +5080,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{855D0587-4093-4B1B-9682-181C75B22F22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA567415-6534-4163-8B6D-A0065C5EF352}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7536C7E-9BB8-47D7-A3E4-5AA16F41A439}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5375EA-0C78-41BD-8BC6-4D61E0C3CE41}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB446A7-DC64-455A-B004-0E65345EB8FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4361DB5-3508-4634-B933-A561FB761625}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A7C5DF4-5131-4981-B98A-FC0F763223A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B10AF2C-C8C6-42E1-B208-64EB4386388C}"/>
 </file>
--- a/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.syntax_checked.xlsx
@@ -5080,17 +5080,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA567415-6534-4163-8B6D-A0065C5EF352}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E33844-0105-4079-8110-E9DFA7DA72A2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5375EA-0C78-41BD-8BC6-4D61E0C3CE41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC1D1BD4-9A4D-492F-BFCE-C1EDCE396528}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4361DB5-3508-4634-B933-A561FB761625}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE13FBC-6505-449B-976A-C9CEFCC82BCE}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B10AF2C-C8C6-42E1-B208-64EB4386388C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF9AC96-9737-4A08-AE7C-3FBA9A9D7141}"/>
 </file>